--- a/预测器准确率.xlsx
+++ b/预测器准确率.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnn\arch_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnn\体系结构\arch_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,6 +461,9 @@
       <c r="D4">
         <v>93.528400000000005</v>
       </c>
+      <c r="E4">
+        <v>94.383799999999994</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -469,6 +472,15 @@
       <c r="B5">
         <v>98.0441</v>
       </c>
+      <c r="C5">
+        <v>97.998500000000007</v>
+      </c>
+      <c r="D5">
+        <v>98.060199999999995</v>
+      </c>
+      <c r="E5">
+        <v>98.235699999999994</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -476,6 +488,15 @@
       </c>
       <c r="B6">
         <v>98.342100000000002</v>
+      </c>
+      <c r="C6">
+        <v>98.3001</v>
+      </c>
+      <c r="D6">
+        <v>98.363500000000002</v>
+      </c>
+      <c r="E6">
+        <v>98.565399999999997</v>
       </c>
     </row>
   </sheetData>

--- a/预测器准确率.xlsx
+++ b/预测器准确率.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>预测器1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +499,81 @@
         <v>98.565399999999997</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>93.691599999999994</v>
+      </c>
+      <c r="C11">
+        <v>93.479900000000001</v>
+      </c>
+      <c r="D11">
+        <v>93.747100000000003</v>
+      </c>
+      <c r="E11">
+        <v>94.625900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>98.202600000000004</v>
+      </c>
+      <c r="C12">
+        <v>98.162400000000005</v>
+      </c>
+      <c r="D12">
+        <v>98.224500000000006</v>
+      </c>
+      <c r="E12">
+        <v>98.398700000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>98.457300000000004</v>
+      </c>
+      <c r="C13">
+        <v>98.4238</v>
+      </c>
+      <c r="D13">
+        <v>98.4773</v>
+      </c>
+      <c r="E13">
+        <v>98.674599999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/预测器准确率.xlsx
+++ b/预测器准确率.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,6 +522,18 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>98.041899999999998</v>
+      </c>
+      <c r="C10">
+        <v>98.006500000000003</v>
+      </c>
+      <c r="D10">
+        <v>98.0501</v>
+      </c>
+      <c r="E10">
+        <v>98.189599999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">

--- a/预测器准确率.xlsx
+++ b/预测器准确率.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnn\体系结构\arch_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnn\arch_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,6 +517,18 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="B9">
+        <v>94.924099999999996</v>
+      </c>
+      <c r="C9">
+        <v>94.810500000000005</v>
+      </c>
+      <c r="D9">
+        <v>94.917299999999997</v>
+      </c>
+      <c r="E9">
+        <v>95.020899999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
